--- a/Scrum Artifacts/Sprint1/Burndown_Chart_Data.xlsx
+++ b/Scrum Artifacts/Sprint1/Burndown_Chart_Data.xlsx
@@ -167,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +184,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB7B7B7"/>
         <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor rgb="FFA4C2F4"/>
       </patternFill>
     </fill>
     <fill>
@@ -205,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="46">
     <border/>
     <border>
       <left style="thick">
@@ -282,6 +288,25 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -290,6 +315,25 @@
       </top>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -340,6 +384,103 @@
       </bottom>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -354,46 +495,131 @@
       </bottom>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
@@ -401,221 +627,9 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <right style="thin">
@@ -659,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -685,141 +699,148 @@
     <xf borderId="10" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="11" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="27" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="19" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="22" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="22" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="16" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="19" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="15" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="20" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="24" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="27" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="28" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="29" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="30" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="31" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="32" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="32" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="13" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="34" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="33" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="34" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="34" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="35" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="36" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="35" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="6" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="36" fillId="6" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="36" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="37" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="38" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="37" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="6" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="6" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="39" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="27" fillId="7" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="32" fillId="7" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="34" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="38" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="39" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="40" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="41" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="41" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="42" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="42" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="43" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="44" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="44" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="32" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="45" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -911,11 +932,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="264099175"/>
-        <c:axId val="1124423623"/>
+        <c:axId val="61600417"/>
+        <c:axId val="1631022556"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="264099175"/>
+        <c:axId val="61600417"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -967,10 +988,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1124423623"/>
+        <c:crossAx val="1631022556"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1124423623"/>
+        <c:axId val="1631022556"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,7 +1066,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264099175"/>
+        <c:crossAx val="61600417"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1149,11 +1170,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2007058535"/>
-        <c:axId val="1147784570"/>
+        <c:axId val="461398307"/>
+        <c:axId val="2119795349"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2007058535"/>
+        <c:axId val="461398307"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1205,10 +1226,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1147784570"/>
+        <c:crossAx val="2119795349"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1147784570"/>
+        <c:axId val="2119795349"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,7 +1304,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2007058535"/>
+        <c:crossAx val="461398307"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1388,11 +1409,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1287777776"/>
-        <c:axId val="1942253672"/>
+        <c:axId val="1621848092"/>
+        <c:axId val="1434984286"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1287777776"/>
+        <c:axId val="1621848092"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1444,10 +1465,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1942253672"/>
+        <c:crossAx val="1434984286"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1942253672"/>
+        <c:axId val="1434984286"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +1543,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1287777776"/>
+        <c:crossAx val="1621848092"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1626,11 +1647,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="157397883"/>
-        <c:axId val="917217778"/>
+        <c:axId val="908211782"/>
+        <c:axId val="1917846546"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="157397883"/>
+        <c:axId val="908211782"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1682,10 +1703,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="917217778"/>
+        <c:crossAx val="1917846546"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="917217778"/>
+        <c:axId val="1917846546"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1760,7 +1781,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157397883"/>
+        <c:crossAx val="908211782"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1864,11 +1885,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1650618009"/>
-        <c:axId val="317080211"/>
+        <c:axId val="1723411356"/>
+        <c:axId val="997297924"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1650618009"/>
+        <c:axId val="1723411356"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1920,10 +1941,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317080211"/>
+        <c:crossAx val="997297924"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317080211"/>
+        <c:axId val="997297924"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1998,7 +2019,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1650618009"/>
+        <c:crossAx val="1723411356"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2065,7 +2086,9 @@
           <c:spPr>
             <a:ln cmpd="sng" w="19050">
               <a:solidFill>
-                <a:srgbClr val="5891AD"/>
+                <a:srgbClr val="4A86E8">
+                  <a:alpha val="100000"/>
+                </a:srgbClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -2074,11 +2097,15 @@
             <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5891AD"/>
+                <a:srgbClr val="4A86E8">
+                  <a:alpha val="100000"/>
+                </a:srgbClr>
               </a:solidFill>
               <a:ln cmpd="sng">
                 <a:solidFill>
-                  <a:srgbClr val="5891AD"/>
+                  <a:srgbClr val="4A86E8">
+                    <a:alpha val="100000"/>
+                  </a:srgbClr>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -2096,11 +2123,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1875167018"/>
-        <c:axId val="125406591"/>
+        <c:axId val="268259327"/>
+        <c:axId val="1280288786"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1875167018"/>
+        <c:axId val="268259327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,10 +2179,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125406591"/>
+        <c:crossAx val="1280288786"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125406591"/>
+        <c:axId val="1280288786"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,7 +2257,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1875167018"/>
+        <c:crossAx val="268259327"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2360,10 +2387,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
@@ -2385,10 +2412,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
@@ -2712,1549 +2739,1559 @@
       <c r="Q5" s="12">
         <v>45211.0</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="13">
         <v>45212.0</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="16" t="s">
+      <c r="R6" s="18" t="s">
         <v>19</v>
       </c>
+      <c r="S6" s="19"/>
     </row>
     <row r="7">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="22">
         <v>2.0</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="23">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="26">
         <f t="shared" ref="S7:S31" si="1">D7-SUM(E7:R7)</f>
         <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="24"/>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="29">
         <v>2.0</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="30">
         <v>2.5</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="23">
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="31">
         <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="24"/>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="29">
         <v>2.0</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="23">
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="31">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="24"/>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="29">
         <v>2.0</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="23">
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="31">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="31"/>
-      <c r="C11" s="32" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="36">
         <v>2.0</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="37">
         <v>2.0</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="37">
         <v>2.5</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="23">
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="31">
         <f t="shared" si="1"/>
         <v>-2.5</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="22">
         <v>13.0</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="39">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="42">
         <v>1.5</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="42">
         <v>1.0</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="23">
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="31">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="29">
         <v>13.0</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="27">
+      <c r="E13" s="31"/>
+      <c r="F13" s="30">
         <v>1.0</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="30">
         <v>2.0</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="30">
         <v>1.0</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="23">
+      <c r="I13" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="31">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="23">
+      <c r="D14" s="44"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="29">
         <v>13.0</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27">
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30">
         <v>2.0</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="30">
         <v>1.0</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="23">
+      <c r="I15" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="31">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="31"/>
-      <c r="C16" s="32" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="36">
         <v>13.0</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="34">
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="37">
         <v>2.0</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="37">
         <v>1.5</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="23">
+      <c r="I16" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="31">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="23">
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="24"/>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="23">
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="29">
         <v>13.0</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="23">
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="31">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="23">
+      <c r="D20" s="50"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="31"/>
-      <c r="C21" s="32" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="23">
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="23">
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="24"/>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="23">
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="24"/>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="29">
         <v>5.0</v>
       </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27">
+      <c r="E24" s="31"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30">
         <v>1.0</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="30">
         <v>2.0</v>
       </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="23">
+      <c r="I24" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="31">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="23">
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="31"/>
-      <c r="C26" s="51" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="23">
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="56">
         <v>7.0</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="23">
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="31">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="24"/>
-      <c r="C28" s="54" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="23">
+      <c r="D28" s="58"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="24"/>
-      <c r="C29" s="54" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="23">
+      <c r="D29" s="58"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="24"/>
-      <c r="C30" s="54" t="s">
+      <c r="B30" s="27"/>
+      <c r="C30" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="23">
+      <c r="D30" s="58"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="31"/>
-      <c r="C31" s="56" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="23">
+      <c r="D31" s="60"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64">
+      <c r="C32" s="66"/>
+      <c r="D32" s="67">
         <f> SUM(D7:D31)</f>
         <v>87</v>
       </c>
-      <c r="E32" s="65">
+      <c r="E32" s="68">
         <f t="shared" ref="E32:R32" si="2">D32-SUM(E7:E31)</f>
         <v>82.5</v>
       </c>
-      <c r="F32" s="65">
+      <c r="F32" s="68">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="G32" s="65">
+      <c r="G32" s="68">
         <f t="shared" si="2"/>
         <v>70.5</v>
       </c>
-      <c r="H32" s="65">
+      <c r="H32" s="68">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="I32" s="65">
+      <c r="I32" s="68">
         <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="J32" s="65">
+        <v>57.5</v>
+      </c>
+      <c r="J32" s="68">
         <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="K32" s="65">
+        <v>57.5</v>
+      </c>
+      <c r="K32" s="68">
         <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="L32" s="65">
+        <v>57.5</v>
+      </c>
+      <c r="L32" s="68">
         <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="M32" s="65">
+        <v>57.5</v>
+      </c>
+      <c r="M32" s="68">
         <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="N32" s="65">
+        <v>57.5</v>
+      </c>
+      <c r="N32" s="68">
         <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="O32" s="65">
+        <v>57.5</v>
+      </c>
+      <c r="O32" s="68">
         <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="P32" s="65">
+        <v>57.5</v>
+      </c>
+      <c r="P32" s="68">
         <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="Q32" s="66">
+        <v>57.5</v>
+      </c>
+      <c r="Q32" s="69">
         <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="R32" s="67">
+        <v>57.5</v>
+      </c>
+      <c r="R32" s="70">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="70">
+      <c r="C33" s="72"/>
+      <c r="D33" s="73">
         <f>D32</f>
         <v>87</v>
       </c>
-      <c r="E33" s="70">
+      <c r="E33" s="73">
         <f t="shared" ref="E33:R33" si="3">IF(D32=E32,"",E32)</f>
         <v>82.5</v>
       </c>
-      <c r="F33" s="70">
+      <c r="F33" s="73">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="G33" s="70">
+      <c r="G33" s="73">
         <f t="shared" si="3"/>
         <v>70.5</v>
       </c>
-      <c r="H33" s="70">
+      <c r="H33" s="73">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="I33" s="70" t="str">
+      <c r="I33" s="73">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J33" s="70" t="str">
+        <v>57.5</v>
+      </c>
+      <c r="J33" s="73" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K33" s="70" t="str">
+      <c r="K33" s="73" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L33" s="70" t="str">
+      <c r="L33" s="73" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M33" s="70" t="str">
+      <c r="M33" s="73" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N33" s="70" t="str">
+      <c r="N33" s="73" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O33" s="70" t="str">
+      <c r="O33" s="73" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P33" s="70" t="str">
+      <c r="P33" s="73" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q33" s="70" t="str">
+      <c r="Q33" s="73" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R33" s="71" t="str">
+      <c r="R33" s="74" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
     </row>
     <row r="35">
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="74" t="s">
+      <c r="C35" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="75">
+      <c r="D35" s="78">
         <f>D7+D12+D17+D22+D27</f>
         <v>22</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="23">
         <f t="shared" ref="E35:R35" si="4">D35-(E7+E12+E17+E22+E27)</f>
         <v>22</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="23">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="23">
         <f t="shared" si="4"/>
         <v>20.5</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="23">
         <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="23">
         <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="23">
         <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
-      <c r="K35" s="20">
+      <c r="K35" s="23">
         <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="23">
         <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
-      <c r="M35" s="20">
+      <c r="M35" s="23">
         <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
-      <c r="N35" s="20">
+      <c r="N35" s="23">
         <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
-      <c r="O35" s="20">
+      <c r="O35" s="23">
         <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
-      <c r="P35" s="20">
+      <c r="P35" s="23">
         <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
-      <c r="Q35" s="20">
+      <c r="Q35" s="23">
         <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
-      <c r="R35" s="76">
+      <c r="R35" s="79">
         <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="77"/>
-      <c r="C36" s="78" t="s">
+      <c r="B36" s="80"/>
+      <c r="C36" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="79">
+      <c r="D36" s="82">
         <f>D35</f>
         <v>22</v>
       </c>
-      <c r="E36" s="80" t="str">
+      <c r="E36" s="83" t="str">
         <f t="shared" ref="E36:R36" si="5">IF(D35=E35,"",E35)</f>
         <v/>
       </c>
-      <c r="F36" s="80" t="str">
+      <c r="F36" s="83" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G36" s="80">
+      <c r="G36" s="83">
         <f t="shared" si="5"/>
         <v>20.5</v>
       </c>
-      <c r="H36" s="80">
+      <c r="H36" s="83">
         <f t="shared" si="5"/>
         <v>19.5</v>
       </c>
-      <c r="I36" s="80" t="str">
+      <c r="I36" s="83" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J36" s="80" t="str">
+      <c r="J36" s="83" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K36" s="80" t="str">
+      <c r="K36" s="83" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L36" s="80" t="str">
+      <c r="L36" s="83" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M36" s="80" t="str">
+      <c r="M36" s="83" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N36" s="80" t="str">
+      <c r="N36" s="83" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O36" s="80" t="str">
+      <c r="O36" s="83" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P36" s="80" t="str">
+      <c r="P36" s="83" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Q36" s="80" t="str">
+      <c r="Q36" s="83" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R36" s="81" t="str">
+      <c r="R36" s="84" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="77"/>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="80"/>
+      <c r="C37" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="23">
         <f>D8+D13+D18+D23+D28</f>
         <v>15</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="23">
         <f t="shared" ref="E37:R37" si="6">D37-(E8+E13+E18+E23+E28)</f>
         <v>12.5</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="23">
         <f t="shared" si="6"/>
         <v>11.5</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="23">
         <f t="shared" si="6"/>
         <v>9.5</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="23">
         <f t="shared" si="6"/>
         <v>8.5</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="23">
         <f t="shared" si="6"/>
-        <v>8.5</v>
-      </c>
-      <c r="J37" s="20">
+        <v>5.5</v>
+      </c>
+      <c r="J37" s="23">
         <f t="shared" si="6"/>
-        <v>8.5</v>
-      </c>
-      <c r="K37" s="20">
+        <v>5.5</v>
+      </c>
+      <c r="K37" s="23">
         <f t="shared" si="6"/>
-        <v>8.5</v>
-      </c>
-      <c r="L37" s="20">
+        <v>5.5</v>
+      </c>
+      <c r="L37" s="23">
         <f t="shared" si="6"/>
-        <v>8.5</v>
-      </c>
-      <c r="M37" s="20">
+        <v>5.5</v>
+      </c>
+      <c r="M37" s="23">
         <f t="shared" si="6"/>
-        <v>8.5</v>
-      </c>
-      <c r="N37" s="20">
+        <v>5.5</v>
+      </c>
+      <c r="N37" s="23">
         <f t="shared" si="6"/>
-        <v>8.5</v>
-      </c>
-      <c r="O37" s="20">
+        <v>5.5</v>
+      </c>
+      <c r="O37" s="23">
         <f t="shared" si="6"/>
-        <v>8.5</v>
-      </c>
-      <c r="P37" s="20">
+        <v>5.5</v>
+      </c>
+      <c r="P37" s="23">
         <f t="shared" si="6"/>
-        <v>8.5</v>
-      </c>
-      <c r="Q37" s="20">
+        <v>5.5</v>
+      </c>
+      <c r="Q37" s="23">
         <f t="shared" si="6"/>
-        <v>8.5</v>
-      </c>
-      <c r="R37" s="76">
+        <v>5.5</v>
+      </c>
+      <c r="R37" s="79">
         <f t="shared" si="6"/>
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="77"/>
-      <c r="C38" s="33" t="s">
+      <c r="B38" s="80"/>
+      <c r="C38" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="37">
         <f>D37</f>
         <v>15</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="38">
         <f t="shared" ref="E38:R38" si="7">IF(D37=E37,"",E37)</f>
         <v>12.5</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F38" s="38">
         <f t="shared" si="7"/>
         <v>11.5</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G38" s="38">
         <f t="shared" si="7"/>
         <v>9.5</v>
       </c>
-      <c r="H38" s="35">
+      <c r="H38" s="38">
         <f t="shared" si="7"/>
         <v>8.5</v>
       </c>
-      <c r="I38" s="35" t="str">
+      <c r="I38" s="38">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J38" s="35" t="str">
+        <v>5.5</v>
+      </c>
+      <c r="J38" s="38" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K38" s="35" t="str">
+      <c r="K38" s="38" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L38" s="35" t="str">
+      <c r="L38" s="38" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M38" s="35" t="str">
+      <c r="M38" s="38" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N38" s="35" t="str">
+      <c r="N38" s="38" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="O38" s="35" t="str">
+      <c r="O38" s="38" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P38" s="35" t="str">
+      <c r="P38" s="38" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Q38" s="35" t="str">
+      <c r="Q38" s="38" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="R38" s="82" t="str">
+      <c r="R38" s="85" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="77"/>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="80"/>
+      <c r="C39" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="23">
         <f>D9+D14+D19+D24+D29</f>
         <v>20</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="23">
         <f t="shared" ref="E39:R39" si="8">D39-(E9+E14+E19+E24+E29)</f>
         <v>20</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="23">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="G39" s="20">
+      <c r="G39" s="23">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H39" s="23">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="23">
         <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="J39" s="20">
+        <v>16</v>
+      </c>
+      <c r="J39" s="23">
         <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="K39" s="20">
+        <v>16</v>
+      </c>
+      <c r="K39" s="23">
         <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="L39" s="20">
+        <v>16</v>
+      </c>
+      <c r="L39" s="23">
         <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="M39" s="20">
+        <v>16</v>
+      </c>
+      <c r="M39" s="23">
         <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="N39" s="20">
+        <v>16</v>
+      </c>
+      <c r="N39" s="23">
         <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="O39" s="20">
+        <v>16</v>
+      </c>
+      <c r="O39" s="23">
         <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="P39" s="20">
+        <v>16</v>
+      </c>
+      <c r="P39" s="23">
         <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="Q39" s="20">
+        <v>16</v>
+      </c>
+      <c r="Q39" s="23">
         <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="R39" s="76">
+        <v>16</v>
+      </c>
+      <c r="R39" s="79">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="77"/>
-      <c r="C40" s="33" t="s">
+      <c r="B40" s="80"/>
+      <c r="C40" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="38">
         <f>D39</f>
         <v>20</v>
       </c>
-      <c r="E40" s="35" t="str">
+      <c r="E40" s="38" t="str">
         <f t="shared" ref="E40:R40" si="9">IF(D39=E39,"",E39)</f>
         <v/>
       </c>
-      <c r="F40" s="35" t="str">
+      <c r="F40" s="38" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G40" s="35">
+      <c r="G40" s="38">
         <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="H40" s="35">
+      <c r="H40" s="38">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="I40" s="35" t="str">
+      <c r="I40" s="38">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="J40" s="35" t="str">
+        <v>16</v>
+      </c>
+      <c r="J40" s="38" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K40" s="35" t="str">
+      <c r="K40" s="38" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L40" s="35" t="str">
+      <c r="L40" s="38" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M40" s="35" t="str">
+      <c r="M40" s="38" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N40" s="35" t="str">
+      <c r="N40" s="38" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="O40" s="35" t="str">
+      <c r="O40" s="38" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="P40" s="35" t="str">
+      <c r="P40" s="38" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q40" s="35" t="str">
+      <c r="Q40" s="38" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R40" s="82" t="str">
+      <c r="R40" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="77"/>
-      <c r="C41" s="19" t="s">
+      <c r="B41" s="80"/>
+      <c r="C41" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="23">
         <f>D10+D15+D20+D25+D30</f>
         <v>15</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="23">
         <f t="shared" ref="E41:R41" si="10">D41-(E10+E15+E20+E25+E30)</f>
         <v>15</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="23">
         <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="G41" s="20">
+      <c r="G41" s="23">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="H41" s="20">
+      <c r="H41" s="23">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="I41" s="20">
+      <c r="I41" s="23">
         <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="J41" s="20">
+        <v>10.5</v>
+      </c>
+      <c r="J41" s="23">
         <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="K41" s="20">
+        <v>10.5</v>
+      </c>
+      <c r="K41" s="23">
         <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="L41" s="20">
+        <v>10.5</v>
+      </c>
+      <c r="L41" s="23">
         <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="M41" s="20">
+        <v>10.5</v>
+      </c>
+      <c r="M41" s="23">
         <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="N41" s="20">
+        <v>10.5</v>
+      </c>
+      <c r="N41" s="23">
         <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="O41" s="20">
+        <v>10.5</v>
+      </c>
+      <c r="O41" s="23">
         <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="P41" s="20">
+        <v>10.5</v>
+      </c>
+      <c r="P41" s="23">
         <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="Q41" s="20">
+        <v>10.5</v>
+      </c>
+      <c r="Q41" s="23">
         <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="R41" s="76">
+        <v>10.5</v>
+      </c>
+      <c r="R41" s="79">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="42">
-      <c r="B42" s="77"/>
-      <c r="C42" s="33" t="s">
+      <c r="B42" s="80"/>
+      <c r="C42" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="38">
         <f>D41</f>
         <v>15</v>
       </c>
-      <c r="E42" s="35" t="str">
+      <c r="E42" s="38" t="str">
         <f t="shared" ref="E42:R42" si="11">IF(D41=E41,"",E41)</f>
         <v/>
       </c>
-      <c r="F42" s="35" t="str">
+      <c r="F42" s="38" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="G42" s="35">
+      <c r="G42" s="38">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="H42" s="35">
+      <c r="H42" s="38">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="I42" s="35" t="str">
+      <c r="I42" s="38">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="J42" s="35" t="str">
+        <v>10.5</v>
+      </c>
+      <c r="J42" s="38" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="K42" s="35" t="str">
+      <c r="K42" s="38" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="L42" s="35" t="str">
+      <c r="L42" s="38" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="M42" s="35" t="str">
+      <c r="M42" s="38" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="N42" s="35" t="str">
+      <c r="N42" s="38" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O42" s="35" t="str">
+      <c r="O42" s="38" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="P42" s="35" t="str">
+      <c r="P42" s="38" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="Q42" s="35" t="str">
+      <c r="Q42" s="38" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="R42" s="82" t="str">
+      <c r="R42" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="77"/>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="80"/>
+      <c r="C43" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="23">
         <f>D11+D16+D21+D26+D31</f>
         <v>15</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="23">
         <f t="shared" ref="E43:R43" si="12">D43-(E11+E16+E21+E26+E31)</f>
         <v>13</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="23">
         <f t="shared" si="12"/>
         <v>10.5</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G43" s="23">
         <f t="shared" si="12"/>
         <v>8.5</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="23">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I43" s="23">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="J43" s="20">
+        <v>6</v>
+      </c>
+      <c r="J43" s="23">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="K43" s="20">
+        <v>6</v>
+      </c>
+      <c r="K43" s="23">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="L43" s="20">
+        <v>6</v>
+      </c>
+      <c r="L43" s="23">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="M43" s="20">
+        <v>6</v>
+      </c>
+      <c r="M43" s="23">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="N43" s="20">
+        <v>6</v>
+      </c>
+      <c r="N43" s="23">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="O43" s="20">
+        <v>6</v>
+      </c>
+      <c r="O43" s="23">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="P43" s="20">
+        <v>6</v>
+      </c>
+      <c r="P43" s="23">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="Q43" s="20">
+        <v>6</v>
+      </c>
+      <c r="Q43" s="23">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="R43" s="76">
+        <v>6</v>
+      </c>
+      <c r="R43" s="79">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" s="83"/>
-      <c r="C44" s="33" t="s">
+      <c r="B44" s="86"/>
+      <c r="C44" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="38">
         <f>D43</f>
         <v>15</v>
       </c>
-      <c r="E44" s="35">
+      <c r="E44" s="38">
         <f t="shared" ref="E44:R44" si="13">IF(D43=E43,"",E43)</f>
         <v>13</v>
       </c>
-      <c r="F44" s="35">
+      <c r="F44" s="38">
         <f t="shared" si="13"/>
         <v>10.5</v>
       </c>
-      <c r="G44" s="35">
+      <c r="G44" s="38">
         <f t="shared" si="13"/>
         <v>8.5</v>
       </c>
-      <c r="H44" s="35">
+      <c r="H44" s="38">
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="I44" s="35" t="str">
+      <c r="I44" s="38">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J44" s="35" t="str">
+        <v>6</v>
+      </c>
+      <c r="J44" s="38" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="K44" s="35" t="str">
+      <c r="K44" s="38" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="L44" s="35" t="str">
+      <c r="L44" s="38" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="M44" s="35" t="str">
+      <c r="M44" s="38" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="N44" s="35" t="str">
+      <c r="N44" s="38" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="O44" s="35" t="str">
+      <c r="O44" s="38" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="P44" s="35" t="str">
+      <c r="P44" s="38" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="Q44" s="35" t="str">
+      <c r="Q44" s="38" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="R44" s="82" t="str">
+      <c r="R44" s="85" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
@@ -4262,11 +4299,10 @@
     <mergeCell ref="B2:R4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="S5:S6"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="S5:S6"/>
   </mergeCells>
   <conditionalFormatting sqref="E36:R36">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/Scrum Artifacts/Sprint1/Burndown_Chart_Data.xlsx
+++ b/Scrum Artifacts/Sprint1/Burndown_Chart_Data.xlsx
@@ -16,7 +16,7 @@
     <t>Sprint Burndown Chart (09/30 - 10/11)</t>
   </si>
   <si>
-    <t>User Stories</t>
+    <t>Tasks</t>
   </si>
   <si>
     <t>Individual Breakdown</t>
@@ -932,11 +932,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="61600417"/>
-        <c:axId val="1631022556"/>
+        <c:axId val="1445734234"/>
+        <c:axId val="1895240805"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61600417"/>
+        <c:axId val="1445734234"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,10 +988,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1631022556"/>
+        <c:crossAx val="1895240805"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1631022556"/>
+        <c:axId val="1895240805"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1066,7 +1066,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61600417"/>
+        <c:crossAx val="1445734234"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1170,11 +1170,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="461398307"/>
-        <c:axId val="2119795349"/>
+        <c:axId val="2091859157"/>
+        <c:axId val="82404858"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="461398307"/>
+        <c:axId val="2091859157"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1226,10 +1226,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119795349"/>
+        <c:crossAx val="82404858"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119795349"/>
+        <c:axId val="82404858"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,7 +1304,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461398307"/>
+        <c:crossAx val="2091859157"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1409,11 +1409,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1621848092"/>
-        <c:axId val="1434984286"/>
+        <c:axId val="1689817537"/>
+        <c:axId val="1204260192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1621848092"/>
+        <c:axId val="1689817537"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1465,10 +1465,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1434984286"/>
+        <c:crossAx val="1204260192"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1434984286"/>
+        <c:axId val="1204260192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1543,7 +1543,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1621848092"/>
+        <c:crossAx val="1689817537"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1647,11 +1647,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="908211782"/>
-        <c:axId val="1917846546"/>
+        <c:axId val="698626204"/>
+        <c:axId val="794489512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="908211782"/>
+        <c:axId val="698626204"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1703,10 +1703,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1917846546"/>
+        <c:crossAx val="794489512"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1917846546"/>
+        <c:axId val="794489512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1781,7 +1781,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="908211782"/>
+        <c:crossAx val="698626204"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1885,11 +1885,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1723411356"/>
-        <c:axId val="997297924"/>
+        <c:axId val="534387237"/>
+        <c:axId val="117846189"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1723411356"/>
+        <c:axId val="534387237"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1941,10 +1941,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="997297924"/>
+        <c:crossAx val="117846189"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="997297924"/>
+        <c:axId val="117846189"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2019,7 +2019,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1723411356"/>
+        <c:crossAx val="534387237"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2123,11 +2123,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="268259327"/>
-        <c:axId val="1280288786"/>
+        <c:axId val="1769550446"/>
+        <c:axId val="817674975"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="268259327"/>
+        <c:axId val="1769550446"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2179,10 +2179,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1280288786"/>
+        <c:crossAx val="817674975"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1280288786"/>
+        <c:axId val="817674975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2257,7 +2257,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268259327"/>
+        <c:crossAx val="1769550446"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3051,7 +3051,9 @@
       <c r="I15" s="30">
         <v>1.5</v>
       </c>
-      <c r="J15" s="31"/>
+      <c r="J15" s="30">
+        <v>0.5</v>
+      </c>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
@@ -3062,7 +3064,7 @@
       <c r="R15" s="33"/>
       <c r="S15" s="31">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -3298,7 +3300,9 @@
       <c r="I24" s="30">
         <v>1.0</v>
       </c>
-      <c r="J24" s="31"/>
+      <c r="J24" s="30">
+        <v>1.0</v>
+      </c>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
@@ -3309,7 +3313,7 @@
       <c r="R24" s="33"/>
       <c r="S24" s="31">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3522,39 +3526,39 @@
       </c>
       <c r="J32" s="68">
         <f t="shared" si="2"/>
-        <v>57.5</v>
+        <v>56</v>
       </c>
       <c r="K32" s="68">
         <f t="shared" si="2"/>
-        <v>57.5</v>
+        <v>56</v>
       </c>
       <c r="L32" s="68">
         <f t="shared" si="2"/>
-        <v>57.5</v>
+        <v>56</v>
       </c>
       <c r="M32" s="68">
         <f t="shared" si="2"/>
-        <v>57.5</v>
+        <v>56</v>
       </c>
       <c r="N32" s="68">
         <f t="shared" si="2"/>
-        <v>57.5</v>
+        <v>56</v>
       </c>
       <c r="O32" s="68">
         <f t="shared" si="2"/>
-        <v>57.5</v>
+        <v>56</v>
       </c>
       <c r="P32" s="68">
         <f t="shared" si="2"/>
-        <v>57.5</v>
+        <v>56</v>
       </c>
       <c r="Q32" s="69">
         <f t="shared" si="2"/>
-        <v>57.5</v>
+        <v>56</v>
       </c>
       <c r="R32" s="70">
         <f t="shared" si="2"/>
-        <v>57.5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33">
@@ -3586,9 +3590,9 @@
         <f t="shared" si="3"/>
         <v>57.5</v>
       </c>
-      <c r="J33" s="73" t="str">
+      <c r="J33" s="73">
         <f t="shared" si="3"/>
-        <v/>
+        <v>56</v>
       </c>
       <c r="K33" s="73" t="str">
         <f t="shared" si="3"/>
@@ -3924,39 +3928,39 @@
       </c>
       <c r="J39" s="23">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K39" s="23">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L39" s="23">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M39" s="23">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N39" s="23">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O39" s="23">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P39" s="23">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q39" s="23">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R39" s="79">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -3988,9 +3992,9 @@
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="J40" s="38" t="str">
+      <c r="J40" s="38">
         <f t="shared" si="9"/>
-        <v/>
+        <v>15</v>
       </c>
       <c r="K40" s="38" t="str">
         <f t="shared" si="9"/>
@@ -4056,39 +4060,39 @@
       </c>
       <c r="J41" s="23">
         <f t="shared" si="10"/>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K41" s="23">
         <f t="shared" si="10"/>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="L41" s="23">
         <f t="shared" si="10"/>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="M41" s="23">
         <f t="shared" si="10"/>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="N41" s="23">
         <f t="shared" si="10"/>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="O41" s="23">
         <f t="shared" si="10"/>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="P41" s="23">
         <f t="shared" si="10"/>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Q41" s="23">
         <f t="shared" si="10"/>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="R41" s="79">
         <f t="shared" si="10"/>
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -4120,9 +4124,9 @@
         <f t="shared" si="11"/>
         <v>10.5</v>
       </c>
-      <c r="J42" s="38" t="str">
+      <c r="J42" s="38">
         <f t="shared" si="11"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="K42" s="38" t="str">
         <f t="shared" si="11"/>

--- a/Scrum Artifacts/Sprint1/Burndown_Chart_Data.xlsx
+++ b/Scrum Artifacts/Sprint1/Burndown_Chart_Data.xlsx
@@ -764,7 +764,9 @@
     <xf borderId="17" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="22" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="22" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="23" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -932,11 +934,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1445734234"/>
-        <c:axId val="1895240805"/>
+        <c:axId val="215540110"/>
+        <c:axId val="1257964835"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1445734234"/>
+        <c:axId val="215540110"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,10 +990,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1895240805"/>
+        <c:crossAx val="1257964835"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1895240805"/>
+        <c:axId val="1257964835"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1066,7 +1068,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1445734234"/>
+        <c:crossAx val="215540110"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1170,11 +1172,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2091859157"/>
-        <c:axId val="82404858"/>
+        <c:axId val="1294652210"/>
+        <c:axId val="2006701588"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2091859157"/>
+        <c:axId val="1294652210"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1226,10 +1228,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82404858"/>
+        <c:crossAx val="2006701588"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82404858"/>
+        <c:axId val="2006701588"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,7 +1306,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091859157"/>
+        <c:crossAx val="1294652210"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1409,11 +1411,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1689817537"/>
-        <c:axId val="1204260192"/>
+        <c:axId val="1765127912"/>
+        <c:axId val="1002591012"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1689817537"/>
+        <c:axId val="1765127912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1465,10 +1467,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1204260192"/>
+        <c:crossAx val="1002591012"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1204260192"/>
+        <c:axId val="1002591012"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1543,7 +1545,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1689817537"/>
+        <c:crossAx val="1765127912"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1647,11 +1649,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="698626204"/>
-        <c:axId val="794489512"/>
+        <c:axId val="684288120"/>
+        <c:axId val="1579496858"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="698626204"/>
+        <c:axId val="684288120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1703,10 +1705,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="794489512"/>
+        <c:crossAx val="1579496858"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="794489512"/>
+        <c:axId val="1579496858"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1781,7 +1783,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="698626204"/>
+        <c:crossAx val="684288120"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1885,11 +1887,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="534387237"/>
-        <c:axId val="117846189"/>
+        <c:axId val="1184352118"/>
+        <c:axId val="547120550"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="534387237"/>
+        <c:axId val="1184352118"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1941,10 +1943,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117846189"/>
+        <c:crossAx val="547120550"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117846189"/>
+        <c:axId val="547120550"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2019,7 +2021,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534387237"/>
+        <c:crossAx val="1184352118"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2123,11 +2125,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1769550446"/>
-        <c:axId val="817674975"/>
+        <c:axId val="219049144"/>
+        <c:axId val="1052124838"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1769550446"/>
+        <c:axId val="219049144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2179,10 +2181,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="817674975"/>
+        <c:crossAx val="1052124838"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="817674975"/>
+        <c:axId val="1052124838"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2257,7 +2259,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1769550446"/>
+        <c:crossAx val="219049144"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2960,16 +2962,20 @@
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="23"/>
+      <c r="L12" s="42">
+        <v>2.0</v>
+      </c>
+      <c r="M12" s="42">
+        <v>4.0</v>
+      </c>
+      <c r="N12" s="42"/>
       <c r="O12" s="23"/>
       <c r="P12" s="42"/>
       <c r="Q12" s="24"/>
       <c r="R12" s="43"/>
       <c r="S12" s="31">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13">
@@ -3012,7 +3018,9 @@
       <c r="C14" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="44"/>
+      <c r="D14" s="44">
+        <v>6.0</v>
+      </c>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
       <c r="G14" s="45"/>
@@ -3020,7 +3028,9 @@
       <c r="I14" s="32"/>
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
+      <c r="L14" s="45">
+        <v>2.0</v>
+      </c>
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
@@ -3029,7 +3039,7 @@
       <c r="R14" s="33"/>
       <c r="S14" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -3056,7 +3066,9 @@
       </c>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
+      <c r="M15" s="30">
+        <v>1.0</v>
+      </c>
       <c r="N15" s="31"/>
       <c r="O15" s="31"/>
       <c r="P15" s="31"/>
@@ -3064,7 +3076,7 @@
       <c r="R15" s="33"/>
       <c r="S15" s="31">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -3087,8 +3099,12 @@
         <v>1.0</v>
       </c>
       <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
+      <c r="K16" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="L16" s="37">
+        <v>2.0</v>
+      </c>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
       <c r="O16" s="38"/>
@@ -3097,7 +3113,7 @@
       <c r="R16" s="40"/>
       <c r="S16" s="31">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="17">
@@ -3502,63 +3518,63 @@
       <c r="C32" s="66"/>
       <c r="D32" s="67">
         <f> SUM(D7:D31)</f>
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E32" s="68">
         <f t="shared" ref="E32:R32" si="2">D32-SUM(E7:E31)</f>
-        <v>82.5</v>
+        <v>88.5</v>
       </c>
       <c r="F32" s="68">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G32" s="68">
         <f t="shared" si="2"/>
-        <v>70.5</v>
+        <v>76.5</v>
       </c>
       <c r="H32" s="68">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I32" s="68">
         <f t="shared" si="2"/>
-        <v>57.5</v>
+        <v>63.5</v>
       </c>
       <c r="J32" s="68">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K32" s="68">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L32" s="68">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M32" s="68">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N32" s="68">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="O32" s="68">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="P32" s="68">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q32" s="69">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="R32" s="70">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
@@ -3568,43 +3584,43 @@
       <c r="C33" s="72"/>
       <c r="D33" s="73">
         <f>D32</f>
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E33" s="73">
         <f t="shared" ref="E33:R33" si="3">IF(D32=E32,"",E32)</f>
-        <v>82.5</v>
+        <v>88.5</v>
       </c>
       <c r="F33" s="73">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G33" s="73">
         <f t="shared" si="3"/>
-        <v>70.5</v>
+        <v>76.5</v>
       </c>
       <c r="H33" s="73">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I33" s="73">
         <f t="shared" si="3"/>
-        <v>57.5</v>
+        <v>63.5</v>
       </c>
       <c r="J33" s="73">
         <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="K33" s="73" t="str">
+        <v>62</v>
+      </c>
+      <c r="K33" s="73">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L33" s="73" t="str">
+        <v>61</v>
+      </c>
+      <c r="L33" s="73">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M33" s="73" t="str">
+        <v>55</v>
+      </c>
+      <c r="M33" s="73">
         <f t="shared" si="3"/>
-        <v/>
+        <v>50</v>
       </c>
       <c r="N33" s="73" t="str">
         <f t="shared" si="3"/>
@@ -3672,31 +3688,31 @@
       </c>
       <c r="L35" s="23">
         <f t="shared" si="4"/>
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="M35" s="23">
         <f t="shared" si="4"/>
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="N35" s="23">
         <f t="shared" si="4"/>
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="O35" s="23">
         <f t="shared" si="4"/>
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="P35" s="23">
         <f t="shared" si="4"/>
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="Q35" s="23">
         <f t="shared" si="4"/>
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="R35" s="79">
         <f t="shared" si="4"/>
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="36">
@@ -3736,13 +3752,13 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L36" s="83" t="str">
+      <c r="L36" s="83">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M36" s="83" t="str">
+        <v>17.5</v>
+      </c>
+      <c r="M36" s="83">
         <f t="shared" si="5"/>
-        <v/>
+        <v>13.5</v>
       </c>
       <c r="N36" s="83" t="str">
         <f t="shared" si="5"/>
@@ -3904,63 +3920,63 @@
       </c>
       <c r="D39" s="23">
         <f>D9+D14+D19+D24+D29</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E39" s="23">
         <f t="shared" ref="E39:R39" si="8">D39-(E9+E14+E19+E24+E29)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F39" s="23">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G39" s="23">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H39" s="23">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I39" s="23">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J39" s="23">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K39" s="23">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L39" s="23">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M39" s="23">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N39" s="23">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O39" s="23">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P39" s="23">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q39" s="23">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="R39" s="79">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
@@ -3970,7 +3986,7 @@
       </c>
       <c r="D40" s="38">
         <f>D39</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E40" s="38" t="str">
         <f t="shared" ref="E40:R40" si="9">IF(D39=E39,"",E39)</f>
@@ -3982,27 +3998,27 @@
       </c>
       <c r="G40" s="38">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H40" s="38">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I40" s="38">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J40" s="38">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K40" s="38" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L40" s="38" t="str">
+      <c r="L40" s="38">
         <f t="shared" si="9"/>
-        <v/>
+        <v>19</v>
       </c>
       <c r="M40" s="38" t="str">
         <f t="shared" si="9"/>
@@ -4072,27 +4088,27 @@
       </c>
       <c r="M41" s="23">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N41" s="23">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O41" s="23">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P41" s="23">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q41" s="23">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R41" s="79">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -4136,9 +4152,9 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="M42" s="38" t="str">
+      <c r="M42" s="38">
         <f t="shared" si="11"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="N42" s="38" t="str">
         <f t="shared" si="11"/>
@@ -4196,35 +4212,35 @@
       </c>
       <c r="K43" s="23">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L43" s="23">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M43" s="23">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N43" s="23">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O43" s="23">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P43" s="23">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q43" s="23">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R43" s="79">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -4260,13 +4276,13 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="K44" s="38" t="str">
+      <c r="K44" s="38">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L44" s="38" t="str">
+        <v>5</v>
+      </c>
+      <c r="L44" s="38">
         <f t="shared" si="13"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="M44" s="38" t="str">
         <f t="shared" si="13"/>

--- a/Scrum Artifacts/Sprint1/Burndown_Chart_Data.xlsx
+++ b/Scrum Artifacts/Sprint1/Burndown_Chart_Data.xlsx
@@ -934,11 +934,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="215540110"/>
-        <c:axId val="1257964835"/>
+        <c:axId val="1344734722"/>
+        <c:axId val="357170820"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="215540110"/>
+        <c:axId val="1344734722"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -990,10 +990,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1257964835"/>
+        <c:crossAx val="357170820"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1257964835"/>
+        <c:axId val="357170820"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,7 +1068,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215540110"/>
+        <c:crossAx val="1344734722"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1172,11 +1172,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1294652210"/>
-        <c:axId val="2006701588"/>
+        <c:axId val="1440624438"/>
+        <c:axId val="1283548270"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1294652210"/>
+        <c:axId val="1440624438"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,10 +1228,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2006701588"/>
+        <c:crossAx val="1283548270"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2006701588"/>
+        <c:axId val="1283548270"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1306,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1294652210"/>
+        <c:crossAx val="1440624438"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1411,11 +1411,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1765127912"/>
-        <c:axId val="1002591012"/>
+        <c:axId val="1376081632"/>
+        <c:axId val="426973127"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1765127912"/>
+        <c:axId val="1376081632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,10 +1467,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1002591012"/>
+        <c:crossAx val="426973127"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1002591012"/>
+        <c:axId val="426973127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,7 +1545,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1765127912"/>
+        <c:crossAx val="1376081632"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1649,11 +1649,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="684288120"/>
-        <c:axId val="1579496858"/>
+        <c:axId val="1088243006"/>
+        <c:axId val="1723801645"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="684288120"/>
+        <c:axId val="1088243006"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1705,10 +1705,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1579496858"/>
+        <c:crossAx val="1723801645"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1579496858"/>
+        <c:axId val="1723801645"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1783,7 +1783,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684288120"/>
+        <c:crossAx val="1088243006"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1887,11 +1887,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1184352118"/>
-        <c:axId val="547120550"/>
+        <c:axId val="1733812250"/>
+        <c:axId val="721707973"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1184352118"/>
+        <c:axId val="1733812250"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,10 +1943,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547120550"/>
+        <c:crossAx val="721707973"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="547120550"/>
+        <c:axId val="721707973"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2021,7 +2021,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184352118"/>
+        <c:crossAx val="1733812250"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2125,11 +2125,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="219049144"/>
-        <c:axId val="1052124838"/>
+        <c:axId val="893346853"/>
+        <c:axId val="1336619419"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="219049144"/>
+        <c:axId val="893346853"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,10 +2181,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1052124838"/>
+        <c:crossAx val="1336619419"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1052124838"/>
+        <c:axId val="1336619419"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2259,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219049144"/>
+        <c:crossAx val="893346853"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2290,7 +2290,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
@@ -2968,14 +2968,16 @@
       <c r="M12" s="42">
         <v>4.0</v>
       </c>
-      <c r="N12" s="42"/>
+      <c r="N12" s="42">
+        <v>1.0</v>
+      </c>
       <c r="O12" s="23"/>
       <c r="P12" s="42"/>
       <c r="Q12" s="24"/>
       <c r="R12" s="43"/>
       <c r="S12" s="31">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="13">
@@ -3003,14 +3005,16 @@
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
+      <c r="N13" s="30">
+        <v>4.0</v>
+      </c>
       <c r="O13" s="31"/>
       <c r="P13" s="31"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="33"/>
       <c r="S13" s="31">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -3032,14 +3036,16 @@
         <v>2.0</v>
       </c>
       <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
+      <c r="N14" s="45">
+        <v>2.0</v>
+      </c>
       <c r="O14" s="32"/>
       <c r="P14" s="32"/>
       <c r="Q14" s="32"/>
       <c r="R14" s="33"/>
       <c r="S14" s="31">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -3069,14 +3075,16 @@
       <c r="M15" s="30">
         <v>1.0</v>
       </c>
-      <c r="N15" s="31"/>
+      <c r="N15" s="30">
+        <v>3.0</v>
+      </c>
       <c r="O15" s="31"/>
       <c r="P15" s="31"/>
       <c r="Q15" s="32"/>
       <c r="R15" s="33"/>
       <c r="S15" s="31">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -3106,14 +3114,16 @@
         <v>2.0</v>
       </c>
       <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
+      <c r="N16" s="37">
+        <v>2.0</v>
+      </c>
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
       <c r="Q16" s="39"/>
       <c r="R16" s="40"/>
       <c r="S16" s="31">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="17">
@@ -3558,23 +3568,23 @@
       </c>
       <c r="N32" s="68">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="O32" s="68">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P32" s="68">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="69">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="R32" s="70">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
@@ -3622,9 +3632,9 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="N33" s="73" t="str">
+      <c r="N33" s="73">
         <f t="shared" si="3"/>
-        <v/>
+        <v>38</v>
       </c>
       <c r="O33" s="73" t="str">
         <f t="shared" si="3"/>
@@ -3696,23 +3706,23 @@
       </c>
       <c r="N35" s="23">
         <f t="shared" si="4"/>
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="O35" s="23">
         <f t="shared" si="4"/>
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="P35" s="23">
         <f t="shared" si="4"/>
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Q35" s="23">
         <f t="shared" si="4"/>
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="R35" s="79">
         <f t="shared" si="4"/>
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="36">
@@ -3760,9 +3770,9 @@
         <f t="shared" si="5"/>
         <v>13.5</v>
       </c>
-      <c r="N36" s="83" t="str">
+      <c r="N36" s="83">
         <f t="shared" si="5"/>
-        <v/>
+        <v>12.5</v>
       </c>
       <c r="O36" s="83" t="str">
         <f t="shared" si="5"/>
@@ -3828,23 +3838,23 @@
       </c>
       <c r="N37" s="23">
         <f t="shared" si="6"/>
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="O37" s="23">
         <f t="shared" si="6"/>
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="P37" s="23">
         <f t="shared" si="6"/>
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q37" s="23">
         <f t="shared" si="6"/>
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="R37" s="79">
         <f t="shared" si="6"/>
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="38">
@@ -3892,9 +3902,9 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N38" s="38" t="str">
+      <c r="N38" s="38">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1.5</v>
       </c>
       <c r="O38" s="38" t="str">
         <f t="shared" si="7"/>
@@ -3960,23 +3970,23 @@
       </c>
       <c r="N39" s="23">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O39" s="23">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P39" s="23">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q39" s="23">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R39" s="79">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
@@ -4024,9 +4034,9 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N40" s="38" t="str">
+      <c r="N40" s="38">
         <f t="shared" si="9"/>
-        <v/>
+        <v>17</v>
       </c>
       <c r="O40" s="38" t="str">
         <f t="shared" si="9"/>
@@ -4092,23 +4102,23 @@
       </c>
       <c r="N41" s="23">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O41" s="23">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P41" s="23">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q41" s="23">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R41" s="79">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -4156,9 +4166,9 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="N42" s="38" t="str">
+      <c r="N42" s="38">
         <f t="shared" si="11"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="O42" s="38" t="str">
         <f t="shared" si="11"/>
@@ -4224,23 +4234,23 @@
       </c>
       <c r="N43" s="23">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O43" s="23">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P43" s="23">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="23">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R43" s="79">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -4288,9 +4298,9 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="N44" s="38" t="str">
+      <c r="N44" s="38">
         <f t="shared" si="13"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O44" s="38" t="str">
         <f t="shared" si="13"/>

--- a/Scrum Artifacts/Sprint1/Burndown_Chart_Data.xlsx
+++ b/Scrum Artifacts/Sprint1/Burndown_Chart_Data.xlsx
@@ -934,11 +934,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1344734722"/>
-        <c:axId val="357170820"/>
+        <c:axId val="1609895886"/>
+        <c:axId val="1715674501"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1344734722"/>
+        <c:axId val="1609895886"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -990,10 +990,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357170820"/>
+        <c:crossAx val="1715674501"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357170820"/>
+        <c:axId val="1715674501"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,7 +1068,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1344734722"/>
+        <c:crossAx val="1609895886"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1172,11 +1172,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1440624438"/>
-        <c:axId val="1283548270"/>
+        <c:axId val="2075781625"/>
+        <c:axId val="1800751619"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1440624438"/>
+        <c:axId val="2075781625"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,10 +1228,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1283548270"/>
+        <c:crossAx val="1800751619"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1283548270"/>
+        <c:axId val="1800751619"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1306,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1440624438"/>
+        <c:crossAx val="2075781625"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1411,11 +1411,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1376081632"/>
-        <c:axId val="426973127"/>
+        <c:axId val="1385650012"/>
+        <c:axId val="842205937"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1376081632"/>
+        <c:axId val="1385650012"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,10 +1467,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426973127"/>
+        <c:crossAx val="842205937"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="426973127"/>
+        <c:axId val="842205937"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,7 +1545,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1376081632"/>
+        <c:crossAx val="1385650012"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1649,11 +1649,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1088243006"/>
-        <c:axId val="1723801645"/>
+        <c:axId val="1733267345"/>
+        <c:axId val="1995977118"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1088243006"/>
+        <c:axId val="1733267345"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1705,10 +1705,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1723801645"/>
+        <c:crossAx val="1995977118"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1723801645"/>
+        <c:axId val="1995977118"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1783,7 +1783,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1088243006"/>
+        <c:crossAx val="1733267345"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1887,11 +1887,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1733812250"/>
-        <c:axId val="721707973"/>
+        <c:axId val="2119472270"/>
+        <c:axId val="765877255"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1733812250"/>
+        <c:axId val="2119472270"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,10 +1943,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="721707973"/>
+        <c:crossAx val="765877255"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="721707973"/>
+        <c:axId val="765877255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2021,7 +2021,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1733812250"/>
+        <c:crossAx val="2119472270"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2125,11 +2125,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="893346853"/>
-        <c:axId val="1336619419"/>
+        <c:axId val="1181432144"/>
+        <c:axId val="1208163363"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="893346853"/>
+        <c:axId val="1181432144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,10 +2181,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1336619419"/>
+        <c:crossAx val="1208163363"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1336619419"/>
+        <c:axId val="1208163363"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2259,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="893346853"/>
+        <c:crossAx val="1181432144"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2971,13 +2971,15 @@
       <c r="N12" s="42">
         <v>1.0</v>
       </c>
-      <c r="O12" s="23"/>
+      <c r="O12" s="42">
+        <v>5.5</v>
+      </c>
       <c r="P12" s="42"/>
       <c r="Q12" s="24"/>
       <c r="R12" s="43"/>
       <c r="S12" s="31">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13">
@@ -3008,13 +3010,15 @@
       <c r="N13" s="30">
         <v>4.0</v>
       </c>
-      <c r="O13" s="31"/>
+      <c r="O13" s="30">
+        <v>6.0</v>
+      </c>
       <c r="P13" s="31"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="33"/>
       <c r="S13" s="31">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="14">
@@ -3039,13 +3043,15 @@
       <c r="N14" s="45">
         <v>2.0</v>
       </c>
-      <c r="O14" s="32"/>
+      <c r="O14" s="45">
+        <v>6.0</v>
+      </c>
       <c r="P14" s="32"/>
       <c r="Q14" s="32"/>
       <c r="R14" s="33"/>
       <c r="S14" s="31">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="15">
@@ -3078,13 +3084,15 @@
       <c r="N15" s="30">
         <v>3.0</v>
       </c>
-      <c r="O15" s="31"/>
+      <c r="O15" s="30">
+        <v>6.0</v>
+      </c>
       <c r="P15" s="31"/>
       <c r="Q15" s="32"/>
       <c r="R15" s="33"/>
       <c r="S15" s="31">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="16">
@@ -3117,13 +3125,15 @@
       <c r="N16" s="37">
         <v>2.0</v>
       </c>
-      <c r="O16" s="38"/>
+      <c r="O16" s="37">
+        <v>6.0</v>
+      </c>
       <c r="P16" s="38"/>
       <c r="Q16" s="39"/>
       <c r="R16" s="40"/>
       <c r="S16" s="31">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="17">
@@ -3572,19 +3582,19 @@
       </c>
       <c r="O32" s="68">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>8.5</v>
       </c>
       <c r="P32" s="68">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>8.5</v>
       </c>
       <c r="Q32" s="69">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>8.5</v>
       </c>
       <c r="R32" s="70">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="33">
@@ -3636,9 +3646,9 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="O33" s="73" t="str">
+      <c r="O33" s="73">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8.5</v>
       </c>
       <c r="P33" s="73" t="str">
         <f t="shared" si="3"/>
@@ -3710,19 +3720,19 @@
       </c>
       <c r="O35" s="23">
         <f t="shared" si="4"/>
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="P35" s="23">
         <f t="shared" si="4"/>
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="Q35" s="23">
         <f t="shared" si="4"/>
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="R35" s="79">
         <f t="shared" si="4"/>
-        <v>12.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -3774,9 +3784,9 @@
         <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
-      <c r="O36" s="83" t="str">
+      <c r="O36" s="83">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="P36" s="83" t="str">
         <f t="shared" si="5"/>
@@ -3842,19 +3852,19 @@
       </c>
       <c r="O37" s="23">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>-4.5</v>
       </c>
       <c r="P37" s="23">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>-4.5</v>
       </c>
       <c r="Q37" s="23">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>-4.5</v>
       </c>
       <c r="R37" s="79">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="38">
@@ -3906,9 +3916,9 @@
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="O38" s="38" t="str">
+      <c r="O38" s="38">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-4.5</v>
       </c>
       <c r="P38" s="38" t="str">
         <f t="shared" si="7"/>
@@ -3974,19 +3984,19 @@
       </c>
       <c r="O39" s="23">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P39" s="23">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q39" s="23">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="R39" s="79">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -4038,9 +4048,9 @@
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="O40" s="38" t="str">
+      <c r="O40" s="38">
         <f t="shared" si="9"/>
-        <v/>
+        <v>11</v>
       </c>
       <c r="P40" s="38" t="str">
         <f t="shared" si="9"/>
@@ -4106,19 +4116,19 @@
       </c>
       <c r="O41" s="23">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P41" s="23">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="23">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R41" s="79">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -4170,9 +4180,9 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="O42" s="38" t="str">
+      <c r="O42" s="38">
         <f t="shared" si="11"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P42" s="38" t="str">
         <f t="shared" si="11"/>
@@ -4238,19 +4248,19 @@
       </c>
       <c r="O43" s="23">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="P43" s="23">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="Q43" s="23">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="R43" s="79">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="44">
@@ -4302,9 +4312,9 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O44" s="38" t="str">
+      <c r="O44" s="38">
         <f t="shared" si="13"/>
-        <v/>
+        <v>-5</v>
       </c>
       <c r="P44" s="38" t="str">
         <f t="shared" si="13"/>
